--- a/Household_Appliances.xlsx
+++ b/Household_Appliances.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkellett/Documents/SecondYearUni/VIP/Updated Spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70735d52a2925493/Documents/malawi-microgrids-VIP4SD-main/malawi-microgrids-VIP4SD-main/Social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A193F5-B84D-534D-9DC2-F8EF7AF9C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F9A193F5-B84D-534D-9DC2-F8EF7AF9C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC06E346-D289-4E85-B2FF-241E7A7038CE}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="6960" windowWidth="26040" windowHeight="13960" xr2:uid="{64C35525-8A0E-D146-A8D9-0565E219D21C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{64C35525-8A0E-D146-A8D9-0565E219D21C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -142,10 +144,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,17 +447,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C0ED3F-8500-9847-A76E-2A4B5472207B}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -473,7 +479,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -484,7 +490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -495,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -506,7 +512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -517,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -528,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -539,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -550,7 +556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -561,7 +567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -572,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -583,7 +589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -594,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -605,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -616,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -627,7 +633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -638,7 +644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -649,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -660,7 +666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -671,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -682,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -690,63 +696,84 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -754,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -762,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -770,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -778,7 +805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -786,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -794,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -802,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -810,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -818,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -826,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -834,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -842,7 +869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -850,7 +877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
